--- a/Quiniela.xlsx
+++ b/Quiniela.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="295">
   <si>
     <t>Resultados Temporada 2020-2021</t>
   </si>
@@ -331,12 +331,18 @@
     <t xml:space="preserve">Huesca </t>
   </si>
   <si>
+    <t>Mal portero</t>
+  </si>
+  <si>
     <t>Oviedo - Cartagena</t>
   </si>
   <si>
     <t>Cádiz</t>
   </si>
   <si>
+    <t>Inestable</t>
+  </si>
+  <si>
     <t>Mallorca - Rayo Vallecano</t>
   </si>
   <si>
@@ -445,6 +451,9 @@
     <t>Huesca - Cádiz</t>
   </si>
   <si>
+    <t>Huesca nunca estuvo en el partido, bien Cádiz</t>
+  </si>
+  <si>
     <t>Alcorcón</t>
   </si>
   <si>
@@ -454,6 +463,9 @@
     <t>Betis - Valladolid</t>
   </si>
   <si>
+    <t>Atraco al Valladolid, después golazo William Carvalho</t>
+  </si>
+  <si>
     <t>Mirandés</t>
   </si>
   <si>
@@ -463,6 +475,9 @@
     <t>Granada - Alavés</t>
   </si>
   <si>
+    <t>Golazo Alavés,</t>
+  </si>
+  <si>
     <t>Tenerife</t>
   </si>
   <si>
@@ -475,9 +490,6 @@
     <t>Málaga</t>
   </si>
   <si>
-    <t>Inestable</t>
-  </si>
-  <si>
     <t>Jornada 2 - Liga Smartbank</t>
   </si>
   <si>
@@ -529,7 +541,7 @@
     <t>Lugo - Leganés</t>
   </si>
   <si>
-    <t>Remontada Lugo, flojo Leganés</t>
+    <t>Remontada Lugo, flojo Leganés segunda parte</t>
   </si>
   <si>
     <t>Cartagena</t>
@@ -547,10 +559,16 @@
     <t>Cartagena - Sporting</t>
   </si>
   <si>
+    <t>Bien Sporting</t>
+  </si>
+  <si>
     <t>Logroñés</t>
   </si>
   <si>
     <t>Albacete - Ponferradina</t>
+  </si>
+  <si>
+    <t>Albacete muy mal</t>
   </si>
   <si>
     <t>Victoria rival superior/fuera de casa/Goles: 3,0</t>
@@ -1238,7 +1256,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.43"/>
+    <col customWidth="1" min="1" max="1" width="30.14"/>
     <col customWidth="1" min="2" max="2" width="10.71"/>
     <col customWidth="1" min="3" max="3" width="41.57"/>
     <col customWidth="1" min="4" max="4" width="7.71"/>
@@ -3727,7 +3745,9 @@
       <c r="E20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="G20" s="13">
         <v>1.5</v>
       </c>
@@ -3850,7 +3870,7 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>44</v>
@@ -3860,9 +3880,11 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G21" s="13">
         <v>0.0</v>
       </c>
@@ -3985,17 +4007,17 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
@@ -4120,13 +4142,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4177,7 +4199,7 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>44</v>
@@ -4187,7 +4209,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -4307,35 +4329,35 @@
         <v>42</v>
       </c>
       <c r="AS24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AT24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AU24" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AV24" s="7"/>
       <c r="AW24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G25" s="13">
         <v>2.5</v>
@@ -4471,7 +4493,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13">
@@ -4604,13 +4626,13 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13">
@@ -4743,17 +4765,17 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13" t="s">
@@ -4886,17 +4908,17 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="13" t="s">
@@ -5029,17 +5051,17 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
@@ -5172,16 +5194,18 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G31" s="13">
         <v>3.0</v>
@@ -5313,13 +5337,15 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="15"/>
+        <v>141</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13">
@@ -5452,13 +5478,15 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13">
@@ -5591,16 +5619,20 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G34" s="13">
         <v>0.25</v>
@@ -5732,16 +5764,18 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G35" s="13">
         <v>0.25</v>
@@ -5873,16 +5907,20 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G36" s="13">
         <v>2.5</v>
@@ -6014,13 +6052,13 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13">
@@ -6157,10 +6195,10 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G38" s="13">
         <v>0.0</v>
@@ -6292,16 +6330,16 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G39" s="13">
         <v>0.25</v>
@@ -6433,20 +6471,20 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G40" s="13">
         <v>0.0</v>
@@ -6578,17 +6616,17 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13">
@@ -6721,17 +6759,17 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="13">
@@ -6864,17 +6902,17 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>93</v>
@@ -7009,20 +7047,20 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G44" s="13">
         <v>0.25</v>
@@ -7154,13 +7192,15 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="15"/>
+        <v>179</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13" t="s">
@@ -7293,13 +7333,15 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13">
@@ -7432,42 +7474,50 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="F47" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C48" s="4"/>
       <c r="F48" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="15"/>
+        <v>189</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="F49" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="4"/>
       <c r="F50" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51">
@@ -7475,91 +7525,91 @@
       <c r="B51" s="15"/>
       <c r="C51" s="4"/>
       <c r="F51" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="4"/>
       <c r="F52" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="4"/>
       <c r="F53" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="4"/>
       <c r="F54" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
@@ -7571,84 +7621,84 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="17" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="17" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="17" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="17" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="4"/>
@@ -7660,7 +7710,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="4"/>
@@ -7722,7 +7772,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="4"/>
@@ -7789,7 +7839,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="4"/>
@@ -7851,7 +7901,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="4"/>
@@ -7918,7 +7968,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="4"/>
@@ -7980,7 +8030,7 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="4"/>
@@ -8047,7 +8097,7 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B152" s="15"/>
       <c r="C152" s="4"/>
@@ -8109,7 +8159,7 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B164" s="15"/>
       <c r="C164" s="4"/>
@@ -8176,7 +8226,7 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B177" s="15"/>
       <c r="C177" s="4"/>
@@ -8238,7 +8288,7 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B189" s="15"/>
       <c r="C189" s="4"/>
@@ -8305,7 +8355,7 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B202" s="15"/>
       <c r="C202" s="4"/>
@@ -8367,7 +8417,7 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B214" s="15"/>
       <c r="C214" s="4"/>
@@ -8434,7 +8484,7 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B227" s="15"/>
       <c r="C227" s="4"/>
@@ -8496,7 +8546,7 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B239" s="15"/>
       <c r="C239" s="4"/>
@@ -8563,7 +8613,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B252" s="15"/>
       <c r="C252" s="4"/>
@@ -8625,7 +8675,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B264" s="15"/>
       <c r="C264" s="4"/>
@@ -8692,7 +8742,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B277" s="15"/>
       <c r="C277" s="4"/>
@@ -8754,7 +8804,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B289" s="15"/>
       <c r="C289" s="4"/>
@@ -8821,7 +8871,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B302" s="15"/>
       <c r="C302" s="4"/>
@@ -8883,7 +8933,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B314" s="15"/>
       <c r="C314" s="4"/>
@@ -8950,7 +9000,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B327" s="15"/>
       <c r="C327" s="4"/>
@@ -9012,7 +9062,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B339" s="15"/>
       <c r="C339" s="4"/>
@@ -9079,7 +9129,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B352" s="15"/>
       <c r="C352" s="4"/>
@@ -9141,7 +9191,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B364" s="15"/>
       <c r="C364" s="4"/>
@@ -9208,7 +9258,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B377" s="15"/>
       <c r="C377" s="4"/>
@@ -9270,7 +9320,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B389" s="15"/>
       <c r="C389" s="4"/>
@@ -9337,7 +9387,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B402" s="15"/>
       <c r="C402" s="4"/>
@@ -9399,7 +9449,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B414" s="15"/>
       <c r="C414" s="4"/>
@@ -9466,7 +9516,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B427" s="15"/>
       <c r="C427" s="4"/>
@@ -9528,7 +9578,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B439" s="15"/>
       <c r="C439" s="4"/>
@@ -9595,7 +9645,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B452" s="15"/>
       <c r="C452" s="4"/>
@@ -9657,7 +9707,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B464" s="15"/>
       <c r="C464" s="4"/>
@@ -9724,7 +9774,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B477" s="15"/>
       <c r="C477" s="4"/>
@@ -9786,7 +9836,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B489" s="15"/>
       <c r="C489" s="4"/>
@@ -9853,7 +9903,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B502" s="15"/>
       <c r="C502" s="4"/>
@@ -9915,7 +9965,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B514" s="15"/>
       <c r="C514" s="4"/>
@@ -9982,7 +10032,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B527" s="15"/>
       <c r="C527" s="4"/>
@@ -10044,7 +10094,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B539" s="15"/>
       <c r="C539" s="4"/>
@@ -10111,7 +10161,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B552" s="15"/>
       <c r="C552" s="4"/>
@@ -10173,7 +10223,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B564" s="15"/>
       <c r="C564" s="4"/>
@@ -10240,7 +10290,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B577" s="15"/>
       <c r="C577" s="4"/>
@@ -10302,7 +10352,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B589" s="15"/>
       <c r="C589" s="4"/>
@@ -10369,7 +10419,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B602" s="15"/>
       <c r="C602" s="4"/>
@@ -10431,7 +10481,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B614" s="15"/>
       <c r="C614" s="4"/>
@@ -10498,7 +10548,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B627" s="15"/>
       <c r="C627" s="4"/>
@@ -10560,7 +10610,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B639" s="15"/>
       <c r="C639" s="4"/>
@@ -10627,7 +10677,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B652" s="15"/>
       <c r="C652" s="4"/>
@@ -10689,7 +10739,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B664" s="15"/>
       <c r="C664" s="4"/>
@@ -10756,7 +10806,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B677" s="15"/>
       <c r="C677" s="4"/>
@@ -10818,7 +10868,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B689" s="15"/>
       <c r="C689" s="4"/>
@@ -10885,7 +10935,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B702" s="15"/>
       <c r="C702" s="4"/>
@@ -10947,7 +10997,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B714" s="15"/>
       <c r="C714" s="4"/>
@@ -11014,7 +11064,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B727" s="15"/>
       <c r="C727" s="4"/>
@@ -11076,7 +11126,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B739" s="15"/>
       <c r="C739" s="4"/>
@@ -11143,7 +11193,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B752" s="15"/>
       <c r="C752" s="4"/>
@@ -11205,7 +11255,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B764" s="15"/>
       <c r="C764" s="4"/>
@@ -11272,7 +11322,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B777" s="15"/>
       <c r="C777" s="4"/>
@@ -11334,7 +11384,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B789" s="15"/>
       <c r="C789" s="4"/>
@@ -11401,7 +11451,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B802" s="15"/>
       <c r="C802" s="4"/>
@@ -11463,7 +11513,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B814" s="15"/>
       <c r="C814" s="4"/>
@@ -11530,7 +11580,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B827" s="15"/>
       <c r="C827" s="4"/>
@@ -11592,7 +11642,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B839" s="15"/>
       <c r="C839" s="4"/>
@@ -11659,7 +11709,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B852" s="15"/>
       <c r="C852" s="4"/>
@@ -11721,7 +11771,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B864" s="15"/>
       <c r="C864" s="4"/>
@@ -11788,7 +11838,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B877" s="15"/>
       <c r="C877" s="4"/>
@@ -11850,7 +11900,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B889" s="15"/>
       <c r="C889" s="4"/>
@@ -11917,7 +11967,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B902" s="15"/>
       <c r="C902" s="4"/>
@@ -11979,7 +12029,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B914" s="15"/>
       <c r="C914" s="4"/>
@@ -12046,7 +12096,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B927" s="15"/>
       <c r="C927" s="4"/>
@@ -12108,7 +12158,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B939" s="15"/>
       <c r="C939" s="4"/>
@@ -12175,7 +12225,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B952" s="15"/>
       <c r="C952" s="4"/>
@@ -12242,7 +12292,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B965" s="15"/>
       <c r="C965" s="4"/>
@@ -12309,7 +12359,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B978" s="15"/>
       <c r="C978" s="4"/>
@@ -12376,7 +12426,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B991" s="15"/>
       <c r="C991" s="4"/>
@@ -12433,7 +12483,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B1002" s="15"/>
       <c r="C1002" s="4"/>

--- a/Quiniela.xlsx
+++ b/Quiniela.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -153,45 +153,45 @@
     <t xml:space="preserve">Empate justo</t>
   </si>
   <si>
+    <t xml:space="preserve">Atlético de Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta gol, Jornada 1 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granada - Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy bien Granada, mal Athletic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Real Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">Falta gol, Jornada 1 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granada - Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy bien Granada, mal Athletic</t>
+    <t xml:space="preserve">Jornada 1 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cádiz - Osasuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien Osasuna</t>
   </si>
   <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t xml:space="preserve">Jornada 1 -</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Hola</t>
   </si>
   <si>
-    <t xml:space="preserve">Cádiz - Osasuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien Osasuna</t>
-  </si>
-  <si>
-    <t>Atlético</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atlético - Sevilla</t>
   </si>
   <si>
@@ -204,217 +204,220 @@
     <t xml:space="preserve">Barcelona - Elche</t>
   </si>
   <si>
+    <t xml:space="preserve">Real Sociedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos fichajes, gol Gerard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madrid - Getafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Betis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poca cosa de momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alavés - Betis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gol último minuto, bien Alavés</t>
+  </si>
+  <si>
     <t>Villarreal</t>
   </si>
   <si>
-    <t xml:space="preserve">Buenos fichajes, gol Gerard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Madrid - Getafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Sociedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poca cosa de momento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alavés - Betis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 - 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gol último minuto, bien Alavés</t>
+    <t xml:space="preserve">Muy bien 6/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valladolid - Real Sociedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 1</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena defensa, unocerismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villarreal - Huesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atraco al Huesca, iba ganando</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t xml:space="preserve">Muy bien 6/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valladolid - Real Sociedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 1</t>
+    <t xml:space="preserve">Falta equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valencia - Levante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletic Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena defensa</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 1 - Liga Smartbank</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponferradina - Castellón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy bien Castellón</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De momento mal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leganés - Las Palmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien Leganés</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buen equipito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporting - Logroñés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logroñés no tiró</t>
   </si>
   <si>
     <t>Getafe</t>
   </si>
   <si>
-    <t xml:space="preserve">Buena defensa, unocerismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villarreal - Huesca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atraco al Huesca, iba ganando</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valencia - Levante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien Valencia</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buena defensa</t>
-  </si>
-  <si>
-    <t>Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 1 - Liga Smartbank</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponferradina - Castellón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy bien Castellón</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De momento mal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leganés - Las Palmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien Leganés</t>
+    <t xml:space="preserve">Buena racha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanyol - Albacete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy bien Espanyol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaragoza - Girona</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iago Aspas genial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabadell - Almería</t>
+  </si>
+  <si>
+    <t>Espanyol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal y mal portero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oviedo - Cartagena</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Inestable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallorca - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien Rayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayo Vallecano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuenlabrada - Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal Lugo en defensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirandés - Alcorcón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clasificación Liga Smartbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenerife - Málaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal Málaga</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No muy superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Valladolid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornada 2 - Liga Santander</t>
   </si>
   <si>
     <t>Eibar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buen equipito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporting - Logroñés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logroñés no tiró</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buena racha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espanyol - Albacete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muy bien Espanyol</t>
-  </si>
-  <si>
-    <t>Alavés</t>
-  </si>
-  <si>
-    <t>Mal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaragoza - Girona</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iago Aspas genial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabadell - Almería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huesca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mal y mal portero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oviedo - Cartagena</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>Inestable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mallorca - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien Rayo</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuenlabrada - Lugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mal Lugo en defensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirandés - Alcorcón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasificación Liga Smartbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenerife - Málaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mal Málaga</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No muy superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Valladolid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornada 2 - Liga Santander</t>
   </si>
   <si>
     <t xml:space="preserve">Villarreal - Eibar</t>
@@ -971,11 +974,11 @@
     </font>
     <font>
       <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="10.000000"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
-      <sz val="10.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1107,25 +1110,25 @@
     <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1844,16 +1847,16 @@
         <v>45</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>0.25</v>
       </c>
       <c r="I3" s="9">
@@ -1981,125 +1984,125 @@
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>54</v>
+      <c r="G4" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U4" s="9">
+        <v>3</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>0.5</v>
       </c>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
@@ -2109,134 +2112,134 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR5" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2253,125 +2256,125 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ6" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2388,125 +2391,125 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="9">
         <v>0.5</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>2.5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ7" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2523,125 +2526,125 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>0.25</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -2660,125 +2663,125 @@
         <v>70</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="9">
         <v>3</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
         <v>2.5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -2797,125 +2800,125 @@
         <v>45</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="15" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="11">
+        <v>57</v>
+      </c>
+      <c r="H10" s="12">
         <v>2.5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -2934,125 +2937,125 @@
         <v>78</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="15" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="9">
         <v>2.5</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ11" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3071,125 +3074,125 @@
         <v>83</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="9">
         <v>3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <v>0.5</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3202,125 +3205,125 @@
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ13" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3335,125 +3338,125 @@
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ14" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3472,125 +3475,125 @@
         <v>91</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ15" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -3609,125 +3612,125 @@
         <v>96</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>98</v>
       </c>
       <c r="G16" s="9">
         <v>0.25</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>0.5</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ16" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -3746,125 +3749,125 @@
         <v>100</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G17" s="9">
         <v>2.5</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>2.5</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ17" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR17" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -3883,125 +3886,125 @@
         <v>105</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="9">
         <v>0.5</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ18" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR18" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4018,125 +4021,125 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="15" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="9">
         <v>0.25</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <v>3</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ19" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR19" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4153,125 +4156,125 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G20" s="9">
         <v>1.5</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ20" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4290,125 +4293,125 @@
         <v>45</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="15" t="s">
         <v>116</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <v>3</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR21" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4427,123 +4430,123 @@
         <v>118</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ22" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR22" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4563,7 +4566,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -4764,138 +4767,138 @@
         <v>129</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="9">
         <v>2.5</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="12">
         <v>0</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU25" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -4903,138 +4906,138 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="12">
         <v>0.25</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU26" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -5044,1576 +5047,1576 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>116</v>
       </c>
       <c r="G27" s="9">
         <v>3</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <v>0.25</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU27" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV27" s="9"/>
       <c r="AW27" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="15"/>
       <c r="G28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU28" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV28" s="9"/>
       <c r="AW28" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU29" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV29" s="9"/>
       <c r="AW29" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU30" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV30" s="9"/>
       <c r="AW30" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>146</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="G31" s="9">
         <v>3</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="12">
         <v>2.5</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU31" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV31" s="9"/>
       <c r="AW31" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="12">
         <v>1</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV32" s="9"/>
       <c r="AW32" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="13" t="s">
         <v>151</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="12">
         <v>1</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU33" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV33" s="9"/>
       <c r="AW33" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>155</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="G34" s="9">
         <v>0.25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="12">
         <v>3</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>159</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="G35" s="9">
         <v>0.25</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="12">
         <v>1</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV35" s="9"/>
       <c r="AW35" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>155</v>
+      <c r="E36" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="G36" s="9">
         <v>2.5</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="12">
         <v>0</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV36" s="9"/>
       <c r="AW36" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>102</v>
       </c>
       <c r="G37" s="9">
         <v>2.5</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="12">
         <v>2.5</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU37" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV37" s="9"/>
       <c r="AW37" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -6621,1346 +6624,1346 @@
       <c r="B38" s="9"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="12">
         <v>2.5</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU38" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV38" s="9"/>
       <c r="AW38" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>169</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G39" s="9">
         <v>0.25</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="12">
         <v>0.5</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU39" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV39" s="9"/>
       <c r="AW39" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>173</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="12">
         <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU40" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV40" s="9"/>
       <c r="AW40" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="13" t="s">
         <v>177</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="12">
         <v>0</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU41" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV41" s="9"/>
       <c r="AW41" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="13" t="s">
         <v>181</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="12">
         <v>3</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU42" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV42" s="9"/>
       <c r="AW42" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>98</v>
       </c>
       <c r="G43" s="9">
         <v>3</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="12">
         <v>0.5</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU43" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV43" s="9"/>
       <c r="AW43" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>188</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="G44" s="9">
         <v>0.25</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="12">
         <v>0.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU44" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV44" s="9"/>
       <c r="AW44" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="13" t="s">
         <v>192</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="G45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="11">
+        <v>57</v>
+      </c>
+      <c r="H45" s="12">
         <v>0.5</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU45" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV45" s="9"/>
       <c r="AW45" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="E46" s="13" t="s">
         <v>196</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AH46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AI46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AJ46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AK46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AL46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AM46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AO46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AP46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AQ46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AR46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AS46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AT46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AU46" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AV46" s="9"/>
       <c r="AW46" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="11" t="s">
         <v>205</v>
       </c>
+      <c r="B50" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="C50" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51">
@@ -7968,91 +7971,91 @@
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -8064,84 +8067,84 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -8282,7 +8285,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -8344,7 +8347,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -8411,7 +8414,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="4"/>
@@ -8473,7 +8476,7 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -8540,7 +8543,7 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="4"/>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="4"/>
@@ -8669,7 +8672,7 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="4"/>
@@ -8731,7 +8734,7 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="4"/>
@@ -8798,7 +8801,7 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="4"/>
@@ -8860,7 +8863,7 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="4"/>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="4"/>
@@ -8989,7 +8992,7 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="4"/>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="4"/>
@@ -9118,7 +9121,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="4"/>
@@ -9185,7 +9188,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="4"/>
@@ -9247,7 +9250,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="4"/>
@@ -9314,7 +9317,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="4"/>
@@ -9376,7 +9379,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B314" s="9"/>
       <c r="C314" s="4"/>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="4"/>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="4"/>
@@ -9572,7 +9575,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="4"/>
@@ -9634,7 +9637,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="4"/>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B377" s="9"/>
       <c r="C377" s="4"/>
@@ -9763,7 +9766,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B389" s="9"/>
       <c r="C389" s="4"/>
@@ -9830,7 +9833,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B402" s="9"/>
       <c r="C402" s="4"/>
@@ -9892,7 +9895,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B414" s="9"/>
       <c r="C414" s="4"/>
@@ -9959,7 +9962,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B427" s="9"/>
       <c r="C427" s="4"/>
@@ -10021,7 +10024,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="4"/>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="4"/>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="4"/>
@@ -10217,7 +10220,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="4"/>
@@ -10279,7 +10282,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="4"/>
@@ -10346,7 +10349,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B502" s="9"/>
       <c r="C502" s="4"/>
@@ -10408,7 +10411,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B514" s="9"/>
       <c r="C514" s="4"/>
@@ -10475,7 +10478,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B527" s="9"/>
       <c r="C527" s="4"/>
@@ -10537,7 +10540,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B539" s="9"/>
       <c r="C539" s="4"/>
@@ -10604,7 +10607,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B552" s="9"/>
       <c r="C552" s="4"/>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B564" s="9"/>
       <c r="C564" s="4"/>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B577" s="9"/>
       <c r="C577" s="4"/>
@@ -10795,7 +10798,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B589" s="9"/>
       <c r="C589" s="4"/>
@@ -10862,7 +10865,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B602" s="9"/>
       <c r="C602" s="4"/>
@@ -10924,7 +10927,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B614" s="9"/>
       <c r="C614" s="4"/>
@@ -10991,7 +10994,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B627" s="9"/>
       <c r="C627" s="4"/>
@@ -11053,7 +11056,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B639" s="9"/>
       <c r="C639" s="4"/>
@@ -11120,7 +11123,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B652" s="9"/>
       <c r="C652" s="4"/>
@@ -11182,7 +11185,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B664" s="9"/>
       <c r="C664" s="4"/>
@@ -11249,7 +11252,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B677" s="9"/>
       <c r="C677" s="4"/>
@@ -11311,7 +11314,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B689" s="9"/>
       <c r="C689" s="4"/>
@@ -11378,7 +11381,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B702" s="9"/>
       <c r="C702" s="4"/>
@@ -11440,7 +11443,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B714" s="9"/>
       <c r="C714" s="4"/>
@@ -11507,7 +11510,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B727" s="9"/>
       <c r="C727" s="4"/>
@@ -11569,7 +11572,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B739" s="9"/>
       <c r="C739" s="4"/>
@@ -11636,7 +11639,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B752" s="9"/>
       <c r="C752" s="4"/>
@@ -11698,7 +11701,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B764" s="9"/>
       <c r="C764" s="4"/>
@@ -11765,7 +11768,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B777" s="9"/>
       <c r="C777" s="4"/>
@@ -11827,7 +11830,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B789" s="9"/>
       <c r="C789" s="4"/>
@@ -11894,7 +11897,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B802" s="9"/>
       <c r="C802" s="4"/>
@@ -11956,7 +11959,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B814" s="9"/>
       <c r="C814" s="4"/>
@@ -12023,7 +12026,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B827" s="9"/>
       <c r="C827" s="4"/>
@@ -12085,7 +12088,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B839" s="9"/>
       <c r="C839" s="4"/>
@@ -12152,7 +12155,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B852" s="9"/>
       <c r="C852" s="4"/>
@@ -12214,7 +12217,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B864" s="9"/>
       <c r="C864" s="4"/>
@@ -12281,7 +12284,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B877" s="9"/>
       <c r="C877" s="4"/>
@@ -12343,7 +12346,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B889" s="9"/>
       <c r="C889" s="4"/>
@@ -12410,7 +12413,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B902" s="9"/>
       <c r="C902" s="4"/>
@@ -12472,7 +12475,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B914" s="9"/>
       <c r="C914" s="4"/>
@@ -12539,7 +12542,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B927" s="9"/>
       <c r="C927" s="4"/>
@@ -12601,7 +12604,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B939" s="9"/>
       <c r="C939" s="4"/>
@@ -12668,7 +12671,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B952" s="9"/>
       <c r="C952" s="4"/>
@@ -12735,7 +12738,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B965" s="9"/>
       <c r="C965" s="4"/>
@@ -12802,7 +12805,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B978" s="9"/>
       <c r="C978" s="4"/>
@@ -12869,7 +12872,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B991" s="9"/>
       <c r="C991" s="4"/>
@@ -12926,7 +12929,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1002" s="9"/>
       <c r="C1002" s="4"/>

--- a/Quiniela.xlsx
+++ b/Quiniela.xlsx
@@ -4773,128 +4773,128 @@
       <c r="F25" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="12">
+        <v>3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="9">
+        <v>3</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
         <v>2.5</v>
       </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>57</v>
+      <c r="Q25" s="9">
+        <v>3</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U25" s="9">
+        <v>3</v>
+      </c>
+      <c r="V25" s="9">
+        <v>1</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AK25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AN25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU25" s="9">
+        <v>1</v>
       </c>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9" t="s">
@@ -4912,128 +4912,128 @@
       <c r="F26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
+      <c r="G26" s="12">
+        <v>0.25</v>
       </c>
       <c r="H26" s="12">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>3</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
+        <v>3</v>
+      </c>
+      <c r="P26" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>3</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="9">
         <v>0.25</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU26" s="9" t="s">
-        <v>57</v>
+      <c r="T26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U26" s="9">
+        <v>3</v>
+      </c>
+      <c r="V26" s="9">
+        <v>1</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AK26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="AN26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AS26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="9">
+        <v>1</v>
       </c>
       <c r="AV26" s="9"/>
       <c r="AW26" s="9" t="s">

--- a/Quiniela.xlsx
+++ b/Quiniela.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t xml:space="preserve">Resultados Temporada 2020-2021</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Hola</t>
   </si>
   <si>
     <t xml:space="preserve">Atlético - Sevilla</t>
@@ -974,7 +971,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="10.000000"/>
     </font>
     <font>
@@ -995,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1057,31 +1053,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,7 +1091,7 @@
     <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,7 +1100,7 @@
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2239,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -2249,15 +2230,15 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>52</v>
@@ -2374,7 +2355,7 @@
         <v>57</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
@@ -2384,18 +2365,18 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="9">
         <v>0.5</v>
@@ -2509,7 +2490,7 @@
         <v>57</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
@@ -2519,18 +2500,18 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -2644,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
@@ -2654,20 +2635,20 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="G9" s="9">
         <v>3</v>
@@ -2781,7 +2762,7 @@
         <v>57</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
@@ -2791,20 +2772,20 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>57</v>
@@ -2918,7 +2899,7 @@
         <v>57</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
@@ -2928,20 +2909,20 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="9">
         <v>2.5</v>
@@ -3055,7 +3036,7 @@
         <v>57</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
@@ -3065,20 +3046,20 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="G12" s="9">
         <v>3</v>
@@ -3192,7 +3173,7 @@
         <v>57</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS12" s="5"/>
       <c r="AT12" s="5"/>
@@ -3206,10 +3187,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -3323,7 +3304,7 @@
         <v>57</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -3333,16 +3314,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -3456,7 +3437,7 @@
         <v>57</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
@@ -3466,20 +3447,20 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -3593,7 +3574,7 @@
         <v>57</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -3603,20 +3584,20 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="G16" s="9">
         <v>0.25</v>
@@ -3730,7 +3711,7 @@
         <v>57</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -3740,20 +3721,20 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="G17" s="9">
         <v>2.5</v>
@@ -3867,7 +3848,7 @@
         <v>57</v>
       </c>
       <c r="AR17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS17" s="5"/>
       <c r="AT17" s="5"/>
@@ -3877,20 +3858,20 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="G18" s="9">
         <v>0.5</v>
@@ -4004,7 +3985,7 @@
         <v>57</v>
       </c>
       <c r="AR18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
@@ -4014,18 +3995,18 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="G19" s="9">
         <v>0.25</v>
@@ -4139,7 +4120,7 @@
         <v>57</v>
       </c>
       <c r="AR19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS19" s="5"/>
       <c r="AT19" s="5"/>
@@ -4149,18 +4130,18 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="G20" s="9">
         <v>1.5</v>
@@ -4274,7 +4255,7 @@
         <v>57</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
@@ -4284,7 +4265,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>44</v>
@@ -4294,10 +4275,10 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -4411,7 +4392,7 @@
         <v>57</v>
       </c>
       <c r="AR21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
@@ -4421,17 +4402,17 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="9" t="s">
@@ -4546,7 +4527,7 @@
         <v>57</v>
       </c>
       <c r="AR22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS22" s="5"/>
       <c r="AT22" s="5"/>
@@ -4556,13 +4537,13 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4613,7 +4594,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>44</v>
@@ -4623,7 +4604,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -4743,35 +4724,34 @@
         <v>42</v>
       </c>
       <c r="AS24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AT24" s="7" t="s">
+      <c r="AU24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AU24" s="7" t="s">
+      <c r="AV24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="G25" s="12">
         <v>3</v>
@@ -4896,9 +4876,8 @@
       <c r="AU25" s="9">
         <v>1</v>
       </c>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9" t="s">
-        <v>58</v>
+      <c r="AV25" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -4907,10 +4886,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="12">
         <v>0.25</v>
@@ -5035,23 +5014,22 @@
       <c r="AU26" s="9">
         <v>1</v>
       </c>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9" t="s">
-        <v>58</v>
+      <c r="AV26" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="9">
         <v>3</v>
@@ -5176,24 +5154,23 @@
       <c r="AU27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9" t="s">
-        <v>58</v>
+      <c r="AV27" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="9" t="s">
@@ -5319,24 +5296,23 @@
       <c r="AU28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV28" s="9"/>
-      <c r="AW28" s="9" t="s">
-        <v>58</v>
+      <c r="AV28" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="9" t="s">
@@ -5462,24 +5438,23 @@
       <c r="AU29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV29" s="9"/>
-      <c r="AW29" s="9" t="s">
-        <v>58</v>
+      <c r="AV29" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="9" t="s">
@@ -5605,25 +5580,24 @@
       <c r="AU30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV30" s="9"/>
-      <c r="AW30" s="9" t="s">
-        <v>58</v>
+      <c r="AV30" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="G31" s="9">
         <v>3</v>
@@ -5748,25 +5722,24 @@
       <c r="AU31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV31" s="9"/>
-      <c r="AW31" s="9" t="s">
-        <v>58</v>
+      <c r="AV31" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
@@ -5891,25 +5864,24 @@
       <c r="AU32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV32" s="9"/>
-      <c r="AW32" s="9" t="s">
-        <v>58</v>
+      <c r="AV32" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
@@ -6034,27 +6006,26 @@
       <c r="AU33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9" t="s">
-        <v>58</v>
+      <c r="AV33" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="G34" s="9">
         <v>0.25</v>
@@ -6179,27 +6150,26 @@
       <c r="AU34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9" t="s">
-        <v>58</v>
+      <c r="AV34" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="G35" s="9">
         <v>0.25</v>
@@ -6324,27 +6294,26 @@
       <c r="AU35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="9"/>
-      <c r="AW35" s="9" t="s">
-        <v>58</v>
+      <c r="AV35" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="9">
         <v>2.5</v>
@@ -6469,27 +6438,26 @@
       <c r="AU36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV36" s="9"/>
-      <c r="AW36" s="9" t="s">
-        <v>58</v>
+      <c r="AV36" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="9">
         <v>2.5</v>
@@ -6614,9 +6582,8 @@
       <c r="AU37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="9"/>
-      <c r="AW37" s="9" t="s">
-        <v>58</v>
+      <c r="AV37" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -6625,10 +6592,10 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -6753,23 +6720,22 @@
       <c r="AU38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV38" s="9"/>
-      <c r="AW38" s="9" t="s">
-        <v>58</v>
+      <c r="AV38" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="G39" s="9">
         <v>0.25</v>
@@ -6894,27 +6860,26 @@
       <c r="AU39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV39" s="9"/>
-      <c r="AW39" s="9" t="s">
-        <v>58</v>
+      <c r="AV39" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
@@ -7039,27 +7004,26 @@
       <c r="AU40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV40" s="9"/>
-      <c r="AW40" s="9" t="s">
-        <v>58</v>
+      <c r="AV40" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -7184,27 +7148,26 @@
       <c r="AU41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV41" s="9"/>
-      <c r="AW41" s="9" t="s">
-        <v>58</v>
+      <c r="AV41" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -7329,27 +7292,26 @@
       <c r="AU42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV42" s="9"/>
-      <c r="AW42" s="9" t="s">
-        <v>58</v>
+      <c r="AV42" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="9">
         <v>3</v>
@@ -7474,27 +7436,26 @@
       <c r="AU43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV43" s="9"/>
-      <c r="AW43" s="9" t="s">
-        <v>58</v>
+      <c r="AV43" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="G44" s="9">
         <v>0.25</v>
@@ -7619,27 +7580,26 @@
       <c r="AU44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV44" s="9"/>
-      <c r="AW44" s="9" t="s">
-        <v>58</v>
+      <c r="AV44" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>57</v>
@@ -7764,27 +7724,26 @@
       <c r="AU45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV45" s="9"/>
-      <c r="AW45" s="9" t="s">
-        <v>58</v>
+      <c r="AV45" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -7909,61 +7868,60 @@
       <c r="AU46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9" t="s">
-        <v>58</v>
+      <c r="AV46" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="F50" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="51">
@@ -7971,91 +7929,91 @@
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="4"/>
@@ -8067,84 +8025,84 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="4"/>
@@ -8156,7 +8114,7 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -8218,7 +8176,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="4"/>
@@ -8285,7 +8243,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="4"/>
@@ -8347,7 +8305,7 @@
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="4"/>
@@ -8414,7 +8372,7 @@
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="4"/>
@@ -8476,7 +8434,7 @@
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="4"/>
@@ -8543,7 +8501,7 @@
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="4"/>
@@ -8605,7 +8563,7 @@
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="4"/>
@@ -8672,7 +8630,7 @@
     </row>
     <row r="177">
       <c r="A177" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="4"/>
@@ -8734,7 +8692,7 @@
     </row>
     <row r="189">
       <c r="A189" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="4"/>
@@ -8801,7 +8759,7 @@
     </row>
     <row r="202">
       <c r="A202" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="4"/>
@@ -8863,7 +8821,7 @@
     </row>
     <row r="214">
       <c r="A214" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="4"/>
@@ -8930,7 +8888,7 @@
     </row>
     <row r="227">
       <c r="A227" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="4"/>
@@ -8992,7 +8950,7 @@
     </row>
     <row r="239">
       <c r="A239" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="4"/>
@@ -9059,7 +9017,7 @@
     </row>
     <row r="252">
       <c r="A252" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="4"/>
@@ -9121,7 +9079,7 @@
     </row>
     <row r="264">
       <c r="A264" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="4"/>
@@ -9188,7 +9146,7 @@
     </row>
     <row r="277">
       <c r="A277" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="4"/>
@@ -9250,7 +9208,7 @@
     </row>
     <row r="289">
       <c r="A289" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="4"/>
@@ -9317,7 +9275,7 @@
     </row>
     <row r="302">
       <c r="A302" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="4"/>
@@ -9379,7 +9337,7 @@
     </row>
     <row r="314">
       <c r="A314" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B314" s="9"/>
       <c r="C314" s="4"/>
@@ -9446,7 +9404,7 @@
     </row>
     <row r="327">
       <c r="A327" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="4"/>
@@ -9508,7 +9466,7 @@
     </row>
     <row r="339">
       <c r="A339" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="4"/>
@@ -9575,7 +9533,7 @@
     </row>
     <row r="352">
       <c r="A352" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="4"/>
@@ -9637,7 +9595,7 @@
     </row>
     <row r="364">
       <c r="A364" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="4"/>
@@ -9704,7 +9662,7 @@
     </row>
     <row r="377">
       <c r="A377" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B377" s="9"/>
       <c r="C377" s="4"/>
@@ -9766,7 +9724,7 @@
     </row>
     <row r="389">
       <c r="A389" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B389" s="9"/>
       <c r="C389" s="4"/>
@@ -9833,7 +9791,7 @@
     </row>
     <row r="402">
       <c r="A402" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B402" s="9"/>
       <c r="C402" s="4"/>
@@ -9895,7 +9853,7 @@
     </row>
     <row r="414">
       <c r="A414" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B414" s="9"/>
       <c r="C414" s="4"/>
@@ -9962,7 +9920,7 @@
     </row>
     <row r="427">
       <c r="A427" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B427" s="9"/>
       <c r="C427" s="4"/>
@@ -10024,7 +9982,7 @@
     </row>
     <row r="439">
       <c r="A439" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="4"/>
@@ -10091,7 +10049,7 @@
     </row>
     <row r="452">
       <c r="A452" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="4"/>
@@ -10153,7 +10111,7 @@
     </row>
     <row r="464">
       <c r="A464" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="4"/>
@@ -10220,7 +10178,7 @@
     </row>
     <row r="477">
       <c r="A477" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="4"/>
@@ -10282,7 +10240,7 @@
     </row>
     <row r="489">
       <c r="A489" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="4"/>
@@ -10349,7 +10307,7 @@
     </row>
     <row r="502">
       <c r="A502" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B502" s="9"/>
       <c r="C502" s="4"/>
@@ -10411,7 +10369,7 @@
     </row>
     <row r="514">
       <c r="A514" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B514" s="9"/>
       <c r="C514" s="4"/>
@@ -10478,7 +10436,7 @@
     </row>
     <row r="527">
       <c r="A527" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B527" s="9"/>
       <c r="C527" s="4"/>
@@ -10540,7 +10498,7 @@
     </row>
     <row r="539">
       <c r="A539" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B539" s="9"/>
       <c r="C539" s="4"/>
@@ -10607,7 +10565,7 @@
     </row>
     <row r="552">
       <c r="A552" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B552" s="9"/>
       <c r="C552" s="4"/>
@@ -10669,7 +10627,7 @@
     </row>
     <row r="564">
       <c r="A564" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B564" s="9"/>
       <c r="C564" s="4"/>
@@ -10736,7 +10694,7 @@
     </row>
     <row r="577">
       <c r="A577" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B577" s="9"/>
       <c r="C577" s="4"/>
@@ -10798,7 +10756,7 @@
     </row>
     <row r="589">
       <c r="A589" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B589" s="9"/>
       <c r="C589" s="4"/>
@@ -10865,7 +10823,7 @@
     </row>
     <row r="602">
       <c r="A602" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B602" s="9"/>
       <c r="C602" s="4"/>
@@ -10927,7 +10885,7 @@
     </row>
     <row r="614">
       <c r="A614" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B614" s="9"/>
       <c r="C614" s="4"/>
@@ -10994,7 +10952,7 @@
     </row>
     <row r="627">
       <c r="A627" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B627" s="9"/>
       <c r="C627" s="4"/>
@@ -11056,7 +11014,7 @@
     </row>
     <row r="639">
       <c r="A639" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B639" s="9"/>
       <c r="C639" s="4"/>
@@ -11123,7 +11081,7 @@
     </row>
     <row r="652">
       <c r="A652" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B652" s="9"/>
       <c r="C652" s="4"/>
@@ -11185,7 +11143,7 @@
     </row>
     <row r="664">
       <c r="A664" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B664" s="9"/>
       <c r="C664" s="4"/>
@@ -11252,7 +11210,7 @@
     </row>
     <row r="677">
       <c r="A677" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B677" s="9"/>
       <c r="C677" s="4"/>
@@ -11314,7 +11272,7 @@
     </row>
     <row r="689">
       <c r="A689" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B689" s="9"/>
       <c r="C689" s="4"/>
@@ -11381,7 +11339,7 @@
     </row>
     <row r="702">
       <c r="A702" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B702" s="9"/>
       <c r="C702" s="4"/>
@@ -11443,7 +11401,7 @@
     </row>
     <row r="714">
       <c r="A714" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B714" s="9"/>
       <c r="C714" s="4"/>
@@ -11510,7 +11468,7 @@
     </row>
     <row r="727">
       <c r="A727" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B727" s="9"/>
       <c r="C727" s="4"/>
@@ -11572,7 +11530,7 @@
     </row>
     <row r="739">
       <c r="A739" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B739" s="9"/>
       <c r="C739" s="4"/>
@@ -11639,7 +11597,7 @@
     </row>
     <row r="752">
       <c r="A752" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B752" s="9"/>
       <c r="C752" s="4"/>
@@ -11701,7 +11659,7 @@
     </row>
     <row r="764">
       <c r="A764" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B764" s="9"/>
       <c r="C764" s="4"/>
@@ -11768,7 +11726,7 @@
     </row>
     <row r="777">
       <c r="A777" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B777" s="9"/>
       <c r="C777" s="4"/>
@@ -11830,7 +11788,7 @@
     </row>
     <row r="789">
       <c r="A789" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B789" s="9"/>
       <c r="C789" s="4"/>
@@ -11897,7 +11855,7 @@
     </row>
     <row r="802">
       <c r="A802" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B802" s="9"/>
       <c r="C802" s="4"/>
@@ -11959,7 +11917,7 @@
     </row>
     <row r="814">
       <c r="A814" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B814" s="9"/>
       <c r="C814" s="4"/>
@@ -12026,7 +11984,7 @@
     </row>
     <row r="827">
       <c r="A827" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B827" s="9"/>
       <c r="C827" s="4"/>
@@ -12088,7 +12046,7 @@
     </row>
     <row r="839">
       <c r="A839" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B839" s="9"/>
       <c r="C839" s="4"/>
@@ -12155,7 +12113,7 @@
     </row>
     <row r="852">
       <c r="A852" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B852" s="9"/>
       <c r="C852" s="4"/>
@@ -12217,7 +12175,7 @@
     </row>
     <row r="864">
       <c r="A864" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B864" s="9"/>
       <c r="C864" s="4"/>
@@ -12284,7 +12242,7 @@
     </row>
     <row r="877">
       <c r="A877" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B877" s="9"/>
       <c r="C877" s="4"/>
@@ -12346,7 +12304,7 @@
     </row>
     <row r="889">
       <c r="A889" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B889" s="9"/>
       <c r="C889" s="4"/>
@@ -12413,7 +12371,7 @@
     </row>
     <row r="902">
       <c r="A902" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B902" s="9"/>
       <c r="C902" s="4"/>
@@ -12475,7 +12433,7 @@
     </row>
     <row r="914">
       <c r="A914" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B914" s="9"/>
       <c r="C914" s="4"/>
@@ -12542,7 +12500,7 @@
     </row>
     <row r="927">
       <c r="A927" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B927" s="9"/>
       <c r="C927" s="4"/>
@@ -12604,7 +12562,7 @@
     </row>
     <row r="939">
       <c r="A939" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B939" s="9"/>
       <c r="C939" s="4"/>
@@ -12671,7 +12629,7 @@
     </row>
     <row r="952">
       <c r="A952" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B952" s="9"/>
       <c r="C952" s="4"/>
@@ -12738,7 +12696,7 @@
     </row>
     <row r="965">
       <c r="A965" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B965" s="9"/>
       <c r="C965" s="4"/>
@@ -12805,7 +12763,7 @@
     </row>
     <row r="978">
       <c r="A978" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B978" s="9"/>
       <c r="C978" s="4"/>
@@ -12872,7 +12830,7 @@
     </row>
     <row r="991">
       <c r="A991" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B991" s="9"/>
       <c r="C991" s="4"/>
@@ -12929,7 +12887,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1002" s="9"/>
       <c r="C1002" s="4"/>
